--- a/Backend/asset-transfer-basic/application-javascript/blockchain/blockchain_hist_sub_Time.xlsx
+++ b/Backend/asset-transfer-basic/application-javascript/blockchain/blockchain_hist_sub_Time.xlsx
@@ -405,7 +405,7 @@
         <v>https://gitlab.intra.infineon.com/digital-reference/Time/-/commit/28dad0f5702bf6e60c7c267b3cbf7d0153c80ae1</v>
       </c>
       <c r="D2" t="str">
-        <v>f7d654138e248e7a3cc822b3779570dfcc084456a3ef064006ed8e28a8dca55e</v>
+        <v>e36a72f2ad318fce0b7276963d4ab8d26f598d2d755cb996ef16fa29e396ba76</v>
       </c>
     </row>
   </sheetData>

--- a/Backend/asset-transfer-basic/application-javascript/blockchain/blockchain_hist_sub_Time.xlsx
+++ b/Backend/asset-transfer-basic/application-javascript/blockchain/blockchain_hist_sub_Time.xlsx
@@ -405,7 +405,7 @@
         <v>https://gitlab.intra.infineon.com/digital-reference/Time/-/commit/28dad0f5702bf6e60c7c267b3cbf7d0153c80ae1</v>
       </c>
       <c r="D2" t="str">
-        <v>e36a72f2ad318fce0b7276963d4ab8d26f598d2d755cb996ef16fa29e396ba76</v>
+        <v>f7d654138e248e7a3cc822b3779570dfcc084456a3ef064006ed8e28a8dca55e</v>
       </c>
     </row>
   </sheetData>
